--- a/MDM Care Team List - Report/B2031 codes copy.xlsx
+++ b/MDM Care Team List - Report/B2031 codes copy.xlsx
@@ -451,7 +451,7 @@
     <col min="1" max="1" style="4" width="5.576428571428571" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="5" width="4.147857142857143" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="5" width="4.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="36.005" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="4" width="46.14785714285715" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
